--- a/data/ZhouSoil16S/New/metadata_new.xlsx
+++ b/data/ZhouSoil16S/New/metadata_new.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zijianleowang/Desktop/GitHub/EasyMicrobiome/data/ZhouSoil16S/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4307B372-E552-DF48-B95F-B272B54645BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A72DA0-8CB2-844D-872C-79EEC15F4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{4D3B9F2E-613C-EC4C-A21D-C811D099681D}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4D3B9F2E-613C-EC4C-A21D-C811D099681D}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
     <sheet name="clarification" sheetId="2" r:id="rId2"/>
     <sheet name="AvailableData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>S1S202009a</t>
   </si>
@@ -202,16 +202,7 @@
     <t>warming</t>
   </si>
   <si>
-    <t>1/2 precipitation</t>
-  </si>
-  <si>
     <t>1/2 precipitation + warming</t>
-  </si>
-  <si>
-    <t>2 precipitation</t>
-  </si>
-  <si>
-    <t>2 precipitation + warming</t>
   </si>
   <si>
     <t>unclipped + control</t>
@@ -298,6 +289,15 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>half precipitation + warming</t>
+  </si>
+  <si>
+    <t>double precipitation + warming</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -858,15 +858,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5746ECB5-366C-2640-A389-A344787A4DCA}">
-  <dimension ref="A1:BD49"/>
+  <dimension ref="A1:BC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -880,119 +883,127 @@
         <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
-        <v>71</v>
-      </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" t="s">
-        <v>81</v>
-      </c>
       <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="T1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>0</v>
+      <c r="C2" s="2" t="str">
+        <f>IF(ISNUMBER(SEARCH(C$1,$B2)),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IF(ISNUMBER(SEARCH(D$1,$B2)),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IF(ISNUMBER(SEARCH(E$1,$B2)),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IF(ISNUMBER(SEARCH(F$1,$B2)),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IF(ISNUMBER(SEARCH(G$1,$B2)),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0.22345736980145198</v>
       </c>
       <c r="J2" s="2">
-        <v>0.22345736980145198</v>
+        <v>0.95207784468659118</v>
       </c>
       <c r="K2" s="2">
-        <v>0.95207784468659118</v>
-      </c>
-      <c r="L2" s="2">
         <v>1.579383827464407</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>258.8090098006079</v>
       </c>
+      <c r="M2" s="3">
+        <v>134.83448173639934</v>
+      </c>
       <c r="N2" s="3">
-        <v>134.83448173639934</v>
-      </c>
-      <c r="O2" s="3">
         <v>19.768514136335995</v>
       </c>
+      <c r="O2">
+        <v>1.1284313725490196</v>
+      </c>
       <c r="P2">
-        <v>1.1284313725490196</v>
+        <v>0.65702457687220617</v>
       </c>
       <c r="Q2">
-        <v>0.65702457687220617</v>
+        <v>0.37576630563529978</v>
       </c>
       <c r="R2">
-        <v>0.37576630563529978</v>
+        <v>0.58920104842751031</v>
       </c>
       <c r="S2">
-        <v>0.58920104842751031</v>
+        <v>6.7926617568146025E-2</v>
       </c>
       <c r="T2">
-        <v>6.7926617568146025E-2</v>
+        <v>0.30236205118242387</v>
       </c>
       <c r="U2">
-        <v>0.30236205118242387</v>
-      </c>
-      <c r="V2">
         <v>0.11276339483125281</v>
       </c>
+      <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -1026,67 +1037,77 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>0</v>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:G49" si="0">IF(ISNUMBER(SEARCH(C$1,$B3)),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0.22345736980145198</v>
       </c>
       <c r="J3" s="2">
-        <v>0.22345736980145198</v>
+        <v>0.95207784468659118</v>
       </c>
       <c r="K3" s="2">
-        <v>0.95207784468659118</v>
-      </c>
-      <c r="L3" s="2">
         <v>1.579383827464407</v>
       </c>
-      <c r="M3">
+      <c r="L3">
         <v>258.8090098006079</v>
       </c>
+      <c r="M3" s="3">
+        <v>134.83448173639934</v>
+      </c>
       <c r="N3" s="3">
-        <v>134.83448173639934</v>
-      </c>
-      <c r="O3" s="3">
         <v>19.768514136335995</v>
       </c>
+      <c r="O3">
+        <v>1.1284313725490196</v>
+      </c>
       <c r="P3">
-        <v>1.1284313725490196</v>
+        <v>0.65702457687220617</v>
       </c>
       <c r="Q3">
-        <v>0.65702457687220617</v>
+        <v>0.37576630563529978</v>
       </c>
       <c r="R3">
-        <v>0.37576630563529978</v>
+        <v>0.58920104842751031</v>
       </c>
       <c r="S3">
-        <v>0.58920104842751031</v>
+        <v>6.7926617568146025E-2</v>
       </c>
       <c r="T3">
-        <v>6.7926617568146025E-2</v>
+        <v>0.30236205118242387</v>
       </c>
       <c r="U3">
-        <v>0.30236205118242387</v>
-      </c>
-      <c r="V3">
         <v>0.11276339483125281</v>
       </c>
+      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1120,67 +1141,77 @@
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>0.22345736980145198</v>
       </c>
       <c r="J4" s="2">
-        <v>0.22345736980145198</v>
+        <v>0.95207784468659118</v>
       </c>
       <c r="K4" s="2">
-        <v>0.95207784468659118</v>
-      </c>
-      <c r="L4" s="2">
         <v>1.579383827464407</v>
       </c>
-      <c r="M4">
+      <c r="L4">
         <v>258.8090098006079</v>
       </c>
+      <c r="M4" s="3">
+        <v>134.83448173639934</v>
+      </c>
       <c r="N4" s="3">
-        <v>134.83448173639934</v>
-      </c>
-      <c r="O4" s="3">
         <v>19.768514136335995</v>
       </c>
+      <c r="O4">
+        <v>1.1284313725490196</v>
+      </c>
       <c r="P4">
-        <v>1.1284313725490196</v>
+        <v>0.65702457687220617</v>
       </c>
       <c r="Q4">
-        <v>0.65702457687220617</v>
+        <v>0.37576630563529978</v>
       </c>
       <c r="R4">
-        <v>0.37576630563529978</v>
+        <v>0.58920104842751031</v>
       </c>
       <c r="S4">
-        <v>0.58920104842751031</v>
+        <v>6.7926617568146025E-2</v>
       </c>
       <c r="T4">
-        <v>6.7926617568146025E-2</v>
+        <v>0.30236205118242387</v>
       </c>
       <c r="U4">
-        <v>0.30236205118242387</v>
-      </c>
-      <c r="V4">
         <v>0.11276339483125281</v>
       </c>
+      <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -1214,67 +1245,77 @@
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>0.22345736980145198</v>
       </c>
       <c r="J5" s="2">
-        <v>0.22345736980145198</v>
+        <v>0.95207784468659118</v>
       </c>
       <c r="K5" s="2">
-        <v>0.95207784468659118</v>
-      </c>
-      <c r="L5" s="2">
         <v>1.579383827464407</v>
       </c>
-      <c r="M5">
+      <c r="L5">
         <v>258.8090098006079</v>
       </c>
+      <c r="M5" s="3">
+        <v>134.83448173639934</v>
+      </c>
       <c r="N5" s="3">
-        <v>134.83448173639934</v>
-      </c>
-      <c r="O5" s="3">
         <v>19.768514136335995</v>
       </c>
+      <c r="O5">
+        <v>1.1284313725490196</v>
+      </c>
       <c r="P5">
-        <v>1.1284313725490196</v>
+        <v>0.65702457687220617</v>
       </c>
       <c r="Q5">
-        <v>0.65702457687220617</v>
+        <v>0.37576630563529978</v>
       </c>
       <c r="R5">
-        <v>0.37576630563529978</v>
+        <v>0.58920104842751031</v>
       </c>
       <c r="S5">
-        <v>0.58920104842751031</v>
+        <v>6.7926617568146025E-2</v>
       </c>
       <c r="T5">
-        <v>6.7926617568146025E-2</v>
+        <v>0.30236205118242387</v>
       </c>
       <c r="U5">
-        <v>0.30236205118242387</v>
-      </c>
-      <c r="V5">
         <v>0.11276339483125281</v>
       </c>
+      <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -1308,65 +1349,77 @@
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>0</v>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0.44686698453112689</v>
       </c>
       <c r="J6" s="2">
-        <v>0.44686698453112689</v>
+        <v>1.0127031602792307</v>
       </c>
       <c r="K6" s="2">
-        <v>1.0127031602792307</v>
-      </c>
-      <c r="L6" s="2">
         <v>1.8071531883837335</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <v>281.54851563225651</v>
       </c>
+      <c r="M6" s="3">
+        <v>104.9058884302278</v>
+      </c>
       <c r="N6" s="3">
-        <v>104.9058884302278</v>
-      </c>
-      <c r="O6" s="3">
         <v>21.968395479403558</v>
       </c>
+      <c r="O6">
+        <v>1.3438292964244523</v>
+      </c>
       <c r="P6">
-        <v>1.3438292964244523</v>
+        <v>0.65269931274423032</v>
       </c>
       <c r="Q6">
-        <v>0.65269931274423032</v>
+        <v>0.76629640069357019</v>
       </c>
       <c r="R6">
-        <v>0.76629640069357019</v>
+        <v>0.8594866520238027</v>
       </c>
       <c r="S6">
-        <v>0.8594866520238027</v>
+        <v>0.29388586371679398</v>
       </c>
       <c r="T6">
-        <v>0.29388586371679398</v>
+        <v>0.11814695587156042</v>
       </c>
       <c r="U6">
-        <v>0.11814695587156042</v>
-      </c>
-      <c r="V6">
         <v>0.34375701083218735</v>
       </c>
+      <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -1400,65 +1453,77 @@
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>0</v>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0.44686698453112689</v>
       </c>
       <c r="J7" s="2">
-        <v>0.44686698453112689</v>
+        <v>1.0127031602792307</v>
       </c>
       <c r="K7" s="2">
-        <v>1.0127031602792307</v>
-      </c>
-      <c r="L7" s="2">
         <v>1.8071531883837335</v>
       </c>
-      <c r="M7">
+      <c r="L7">
         <v>281.54851563225651</v>
       </c>
+      <c r="M7" s="3">
+        <v>104.9058884302278</v>
+      </c>
       <c r="N7" s="3">
-        <v>104.9058884302278</v>
-      </c>
-      <c r="O7" s="3">
         <v>21.968395479403558</v>
       </c>
+      <c r="O7">
+        <v>1.3438292964244523</v>
+      </c>
       <c r="P7">
-        <v>1.3438292964244523</v>
+        <v>0.65269931274423032</v>
       </c>
       <c r="Q7">
-        <v>0.65269931274423032</v>
+        <v>0.76629640069357019</v>
       </c>
       <c r="R7">
-        <v>0.76629640069357019</v>
+        <v>0.8594866520238027</v>
       </c>
       <c r="S7">
-        <v>0.8594866520238027</v>
+        <v>0.29388586371679398</v>
       </c>
       <c r="T7">
-        <v>0.29388586371679398</v>
+        <v>0.11814695587156042</v>
       </c>
       <c r="U7">
-        <v>0.11814695587156042</v>
-      </c>
-      <c r="V7">
         <v>0.34375701083218735</v>
       </c>
+      <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -1492,65 +1557,77 @@
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
       <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>0</v>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>0.44686698453112689</v>
       </c>
       <c r="J8" s="2">
-        <v>0.44686698453112689</v>
+        <v>1.0127031602792307</v>
       </c>
       <c r="K8" s="2">
-        <v>1.0127031602792307</v>
-      </c>
-      <c r="L8" s="2">
         <v>1.8071531883837335</v>
       </c>
-      <c r="M8">
+      <c r="L8">
         <v>281.54851563225651</v>
       </c>
+      <c r="M8" s="3">
+        <v>104.9058884302278</v>
+      </c>
       <c r="N8" s="3">
-        <v>104.9058884302278</v>
-      </c>
-      <c r="O8" s="3">
         <v>21.968395479403558</v>
       </c>
+      <c r="O8">
+        <v>1.3438292964244523</v>
+      </c>
       <c r="P8">
-        <v>1.3438292964244523</v>
+        <v>0.65269931274423032</v>
       </c>
       <c r="Q8">
-        <v>0.65269931274423032</v>
+        <v>0.76629640069357019</v>
       </c>
       <c r="R8">
-        <v>0.76629640069357019</v>
+        <v>0.8594866520238027</v>
       </c>
       <c r="S8">
-        <v>0.8594866520238027</v>
+        <v>0.29388586371679398</v>
       </c>
       <c r="T8">
-        <v>0.29388586371679398</v>
+        <v>0.11814695587156042</v>
       </c>
       <c r="U8">
-        <v>0.11814695587156042</v>
-      </c>
-      <c r="V8">
         <v>0.34375701083218735</v>
       </c>
+      <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -1584,65 +1661,77 @@
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>0</v>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>0.44686698453112689</v>
       </c>
       <c r="J9" s="2">
-        <v>0.44686698453112689</v>
+        <v>1.0127031602792307</v>
       </c>
       <c r="K9" s="2">
-        <v>1.0127031602792307</v>
-      </c>
-      <c r="L9" s="2">
         <v>1.8071531883837335</v>
       </c>
-      <c r="M9">
+      <c r="L9">
         <v>281.54851563225651</v>
       </c>
+      <c r="M9" s="3">
+        <v>104.9058884302278</v>
+      </c>
       <c r="N9" s="3">
-        <v>104.9058884302278</v>
-      </c>
-      <c r="O9" s="3">
         <v>21.968395479403558</v>
       </c>
+      <c r="O9">
+        <v>1.3438292964244523</v>
+      </c>
       <c r="P9">
-        <v>1.3438292964244523</v>
+        <v>0.65269931274423032</v>
       </c>
       <c r="Q9">
-        <v>0.65269931274423032</v>
+        <v>0.76629640069357019</v>
       </c>
       <c r="R9">
-        <v>0.76629640069357019</v>
+        <v>0.8594866520238027</v>
       </c>
       <c r="S9">
-        <v>0.8594866520238027</v>
+        <v>0.29388586371679398</v>
       </c>
       <c r="T9">
-        <v>0.29388586371679398</v>
+        <v>0.11814695587156042</v>
       </c>
       <c r="U9">
-        <v>0.11814695587156042</v>
-      </c>
-      <c r="V9">
         <v>0.34375701083218735</v>
       </c>
+      <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -1676,65 +1765,77 @@
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0.36195234043836644</v>
       </c>
       <c r="J10" s="2">
-        <v>0.36195234043836644</v>
+        <v>0.95163532413481999</v>
       </c>
       <c r="K10" s="2">
-        <v>0.95163532413481999</v>
-      </c>
-      <c r="L10" s="2">
         <v>1.7685521532509023</v>
       </c>
-      <c r="M10">
+      <c r="L10">
         <v>328.72717919687688</v>
       </c>
+      <c r="M10" s="3">
+        <v>136.48391939284025</v>
+      </c>
       <c r="N10" s="3">
-        <v>136.48391939284025</v>
-      </c>
-      <c r="O10" s="3">
         <v>32.643231365822707</v>
       </c>
+      <c r="O10">
+        <v>1.9038638985005765</v>
+      </c>
       <c r="P10">
-        <v>1.9038638985005765</v>
+        <v>0.31758344799872906</v>
       </c>
       <c r="Q10">
-        <v>0.31758344799872906</v>
+        <v>0.26048020076392137</v>
       </c>
       <c r="R10">
-        <v>0.26048020076392137</v>
+        <v>0.29527421730078202</v>
       </c>
       <c r="S10">
-        <v>0.29527421730078202</v>
+        <v>0.43777227426261578</v>
       </c>
       <c r="T10">
-        <v>0.43777227426261578</v>
+        <v>0.6831789179496498</v>
       </c>
       <c r="U10">
-        <v>0.6831789179496498</v>
-      </c>
-      <c r="V10">
         <v>0.42960209930557763</v>
       </c>
+      <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1768,65 +1869,77 @@
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0.36195234043836644</v>
       </c>
       <c r="J11" s="2">
-        <v>0.36195234043836644</v>
+        <v>0.95163532413481999</v>
       </c>
       <c r="K11" s="2">
-        <v>0.95163532413481999</v>
-      </c>
-      <c r="L11" s="2">
         <v>1.7685521532509023</v>
       </c>
-      <c r="M11">
+      <c r="L11">
         <v>328.72717919687688</v>
       </c>
+      <c r="M11" s="3">
+        <v>136.48391939284025</v>
+      </c>
       <c r="N11" s="3">
-        <v>136.48391939284025</v>
-      </c>
-      <c r="O11" s="3">
         <v>32.643231365822707</v>
       </c>
+      <c r="O11">
+        <v>1.9038638985005765</v>
+      </c>
       <c r="P11">
-        <v>1.9038638985005765</v>
+        <v>0.31758344799872906</v>
       </c>
       <c r="Q11">
-        <v>0.31758344799872906</v>
+        <v>0.26048020076392137</v>
       </c>
       <c r="R11">
-        <v>0.26048020076392137</v>
+        <v>0.29527421730078202</v>
       </c>
       <c r="S11">
-        <v>0.29527421730078202</v>
+        <v>0.43777227426261578</v>
       </c>
       <c r="T11">
-        <v>0.43777227426261578</v>
+        <v>0.6831789179496498</v>
       </c>
       <c r="U11">
-        <v>0.6831789179496498</v>
-      </c>
-      <c r="V11">
         <v>0.42960209930557763</v>
       </c>
+      <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -1860,65 +1973,77 @@
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>0.36195234043836644</v>
       </c>
       <c r="J12" s="2">
-        <v>0.36195234043836644</v>
+        <v>0.95163532413481999</v>
       </c>
       <c r="K12" s="2">
-        <v>0.95163532413481999</v>
-      </c>
-      <c r="L12" s="2">
         <v>1.7685521532509023</v>
       </c>
-      <c r="M12">
+      <c r="L12">
         <v>328.72717919687688</v>
       </c>
+      <c r="M12" s="3">
+        <v>136.48391939284025</v>
+      </c>
       <c r="N12" s="3">
-        <v>136.48391939284025</v>
-      </c>
-      <c r="O12" s="3">
         <v>32.643231365822707</v>
       </c>
+      <c r="O12">
+        <v>1.9038638985005765</v>
+      </c>
       <c r="P12">
-        <v>1.9038638985005765</v>
+        <v>0.31758344799872906</v>
       </c>
       <c r="Q12">
-        <v>0.31758344799872906</v>
+        <v>0.26048020076392137</v>
       </c>
       <c r="R12">
-        <v>0.26048020076392137</v>
+        <v>0.29527421730078202</v>
       </c>
       <c r="S12">
-        <v>0.29527421730078202</v>
+        <v>0.43777227426261578</v>
       </c>
       <c r="T12">
-        <v>0.43777227426261578</v>
+        <v>0.6831789179496498</v>
       </c>
       <c r="U12">
-        <v>0.6831789179496498</v>
-      </c>
-      <c r="V12">
         <v>0.42960209930557763</v>
       </c>
+      <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -1952,65 +2077,77 @@
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>0.36195234043836644</v>
       </c>
       <c r="J13" s="2">
-        <v>0.36195234043836644</v>
+        <v>0.95163532413481999</v>
       </c>
       <c r="K13" s="2">
-        <v>0.95163532413481999</v>
-      </c>
-      <c r="L13" s="2">
         <v>1.7685521532509023</v>
       </c>
-      <c r="M13">
+      <c r="L13">
         <v>328.72717919687688</v>
       </c>
+      <c r="M13" s="3">
+        <v>136.48391939284025</v>
+      </c>
       <c r="N13" s="3">
-        <v>136.48391939284025</v>
-      </c>
-      <c r="O13" s="3">
         <v>32.643231365822707</v>
       </c>
+      <c r="O13">
+        <v>1.9038638985005765</v>
+      </c>
       <c r="P13">
-        <v>1.9038638985005765</v>
+        <v>0.31758344799872906</v>
       </c>
       <c r="Q13">
-        <v>0.31758344799872906</v>
+        <v>0.26048020076392137</v>
       </c>
       <c r="R13">
-        <v>0.26048020076392137</v>
+        <v>0.29527421730078202</v>
       </c>
       <c r="S13">
-        <v>0.29527421730078202</v>
+        <v>0.43777227426261578</v>
       </c>
       <c r="T13">
-        <v>0.43777227426261578</v>
+        <v>0.6831789179496498</v>
       </c>
       <c r="U13">
-        <v>0.6831789179496498</v>
-      </c>
-      <c r="V13">
         <v>0.42960209930557763</v>
       </c>
+      <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -2044,65 +2181,77 @@
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0.40305319852160354</v>
       </c>
       <c r="J14" s="2">
-        <v>0.40305319852160354</v>
+        <v>1.0536468475216703</v>
       </c>
       <c r="K14" s="2">
-        <v>1.0536468475216703</v>
-      </c>
-      <c r="L14" s="2">
         <v>1.243485060901909</v>
       </c>
-      <c r="M14">
+      <c r="L14">
         <v>239.30888696292698</v>
       </c>
+      <c r="M14" s="3">
+        <v>75.398182258392609</v>
+      </c>
       <c r="N14" s="3">
-        <v>75.398182258392609</v>
-      </c>
-      <c r="O14" s="3">
         <v>21.482892583196001</v>
       </c>
+      <c r="O14">
+        <v>1.1427912341407152</v>
+      </c>
       <c r="P14">
-        <v>1.1427912341407152</v>
+        <v>0.6230127073843108</v>
       </c>
       <c r="Q14">
-        <v>0.6230127073843108</v>
+        <v>0.6047499015372938</v>
       </c>
       <c r="R14">
-        <v>0.6047499015372938</v>
+        <v>0.57239528500083314</v>
       </c>
       <c r="S14">
-        <v>0.57239528500083314</v>
+        <v>0.44964855953265559</v>
       </c>
       <c r="T14">
-        <v>0.44964855953265559</v>
+        <v>0.52680333792127887</v>
       </c>
       <c r="U14">
-        <v>0.52680333792127887</v>
-      </c>
-      <c r="V14">
         <v>0.56112735382634671</v>
       </c>
+      <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -2136,65 +2285,77 @@
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
       <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0.40305319852160354</v>
       </c>
       <c r="J15" s="2">
-        <v>0.40305319852160354</v>
+        <v>1.0536468475216703</v>
       </c>
       <c r="K15" s="2">
-        <v>1.0536468475216703</v>
-      </c>
-      <c r="L15" s="2">
         <v>1.243485060901909</v>
       </c>
-      <c r="M15">
+      <c r="L15">
         <v>239.30888696292698</v>
       </c>
+      <c r="M15" s="3">
+        <v>75.398182258392609</v>
+      </c>
       <c r="N15" s="3">
-        <v>75.398182258392609</v>
-      </c>
-      <c r="O15" s="3">
         <v>21.482892583196001</v>
       </c>
+      <c r="O15">
+        <v>1.1427912341407152</v>
+      </c>
       <c r="P15">
-        <v>1.1427912341407152</v>
+        <v>0.6230127073843108</v>
       </c>
       <c r="Q15">
-        <v>0.6230127073843108</v>
+        <v>0.6047499015372938</v>
       </c>
       <c r="R15">
-        <v>0.6047499015372938</v>
+        <v>0.57239528500083314</v>
       </c>
       <c r="S15">
-        <v>0.57239528500083314</v>
+        <v>0.44964855953265559</v>
       </c>
       <c r="T15">
-        <v>0.44964855953265559</v>
+        <v>0.52680333792127887</v>
       </c>
       <c r="U15">
-        <v>0.52680333792127887</v>
-      </c>
-      <c r="V15">
         <v>0.56112735382634671</v>
       </c>
+      <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -2228,65 +2389,77 @@
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>0.40305319852160354</v>
       </c>
       <c r="J16" s="2">
-        <v>0.40305319852160354</v>
+        <v>1.0536468475216703</v>
       </c>
       <c r="K16" s="2">
-        <v>1.0536468475216703</v>
-      </c>
-      <c r="L16" s="2">
         <v>1.243485060901909</v>
       </c>
-      <c r="M16">
+      <c r="L16">
         <v>239.30888696292698</v>
       </c>
+      <c r="M16" s="3">
+        <v>75.398182258392609</v>
+      </c>
       <c r="N16" s="3">
-        <v>75.398182258392609</v>
-      </c>
-      <c r="O16" s="3">
         <v>21.482892583196001</v>
       </c>
+      <c r="O16">
+        <v>1.1427912341407152</v>
+      </c>
       <c r="P16">
-        <v>1.1427912341407152</v>
+        <v>0.6230127073843108</v>
       </c>
       <c r="Q16">
-        <v>0.6230127073843108</v>
+        <v>0.6047499015372938</v>
       </c>
       <c r="R16">
-        <v>0.6047499015372938</v>
+        <v>0.57239528500083314</v>
       </c>
       <c r="S16">
-        <v>0.57239528500083314</v>
+        <v>0.44964855953265559</v>
       </c>
       <c r="T16">
-        <v>0.44964855953265559</v>
+        <v>0.52680333792127887</v>
       </c>
       <c r="U16">
-        <v>0.52680333792127887</v>
-      </c>
-      <c r="V16">
         <v>0.56112735382634671</v>
       </c>
+      <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -2320,65 +2493,77 @@
       <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
       <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>0.40305319852160354</v>
       </c>
       <c r="J17" s="2">
-        <v>0.40305319852160354</v>
+        <v>1.0536468475216703</v>
       </c>
       <c r="K17" s="2">
-        <v>1.0536468475216703</v>
-      </c>
-      <c r="L17" s="2">
         <v>1.243485060901909</v>
       </c>
-      <c r="M17">
+      <c r="L17">
         <v>239.30888696292698</v>
       </c>
+      <c r="M17" s="3">
+        <v>75.398182258392609</v>
+      </c>
       <c r="N17" s="3">
-        <v>75.398182258392609</v>
-      </c>
-      <c r="O17" s="3">
         <v>21.482892583196001</v>
       </c>
+      <c r="O17">
+        <v>1.1427912341407152</v>
+      </c>
       <c r="P17">
-        <v>1.1427912341407152</v>
+        <v>0.6230127073843108</v>
       </c>
       <c r="Q17">
-        <v>0.6230127073843108</v>
+        <v>0.6047499015372938</v>
       </c>
       <c r="R17">
-        <v>0.6047499015372938</v>
+        <v>0.57239528500083314</v>
       </c>
       <c r="S17">
-        <v>0.57239528500083314</v>
+        <v>0.44964855953265559</v>
       </c>
       <c r="T17">
-        <v>0.44964855953265559</v>
+        <v>0.52680333792127887</v>
       </c>
       <c r="U17">
-        <v>0.52680333792127887</v>
-      </c>
-      <c r="V17">
         <v>0.56112735382634671</v>
       </c>
+      <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -2412,65 +2597,77 @@
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
       <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0.23403778871396846</v>
       </c>
       <c r="J18" s="2">
-        <v>0.23403778871396846</v>
+        <v>0.9164022592509502</v>
       </c>
       <c r="K18" s="2">
-        <v>0.9164022592509502</v>
-      </c>
-      <c r="L18" s="2">
         <v>1.3173153540023543</v>
       </c>
-      <c r="M18">
+      <c r="L18">
         <v>186.06796814098377</v>
       </c>
+      <c r="M18" s="3">
+        <v>139.41638110927269</v>
+      </c>
       <c r="N18" s="3">
-        <v>139.41638110927269</v>
-      </c>
-      <c r="O18" s="3">
         <v>20.132988379940187</v>
       </c>
+      <c r="O18">
+        <v>1.9972029988465971</v>
+      </c>
       <c r="P18">
-        <v>1.9972029988465971</v>
+        <v>3.9235824797839172E-2</v>
       </c>
       <c r="Q18">
-        <v>3.9235824797839172E-2</v>
+        <v>7.9077194571064616E-2</v>
       </c>
       <c r="R18">
-        <v>7.9077194571064616E-2</v>
+        <v>3.7686736430960474E-2</v>
       </c>
       <c r="S18">
-        <v>3.7686736430960474E-2</v>
+        <v>0.59448871394421787</v>
       </c>
       <c r="T18">
-        <v>0.59448871394421787</v>
+        <v>5.6391984939838199E-2</v>
       </c>
       <c r="U18">
-        <v>5.6391984939838199E-2</v>
-      </c>
-      <c r="V18">
         <v>0.28328434766785238</v>
       </c>
+      <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -2504,65 +2701,77 @@
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
       <c r="BC18" s="2"/>
-      <c r="BD18" s="2"/>
-    </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0.23403778871396846</v>
       </c>
       <c r="J19" s="2">
-        <v>0.23403778871396846</v>
+        <v>0.9164022592509502</v>
       </c>
       <c r="K19" s="2">
-        <v>0.9164022592509502</v>
-      </c>
-      <c r="L19" s="2">
         <v>1.3173153540023543</v>
       </c>
-      <c r="M19">
+      <c r="L19">
         <v>186.06796814098377</v>
       </c>
+      <c r="M19" s="3">
+        <v>139.41638110927269</v>
+      </c>
       <c r="N19" s="3">
-        <v>139.41638110927269</v>
-      </c>
-      <c r="O19" s="3">
         <v>20.132988379940187</v>
       </c>
+      <c r="O19">
+        <v>1.9972029988465971</v>
+      </c>
       <c r="P19">
-        <v>1.9972029988465971</v>
+        <v>3.9235824797839172E-2</v>
       </c>
       <c r="Q19">
-        <v>3.9235824797839172E-2</v>
+        <v>7.9077194571064616E-2</v>
       </c>
       <c r="R19">
-        <v>7.9077194571064616E-2</v>
+        <v>3.7686736430960474E-2</v>
       </c>
       <c r="S19">
-        <v>3.7686736430960474E-2</v>
+        <v>0.59448871394421787</v>
       </c>
       <c r="T19">
-        <v>0.59448871394421787</v>
+        <v>5.6391984939838199E-2</v>
       </c>
       <c r="U19">
-        <v>5.6391984939838199E-2</v>
-      </c>
-      <c r="V19">
         <v>0.28328434766785238</v>
       </c>
+      <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -2596,65 +2805,77 @@
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-    </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>0.23403778871396846</v>
       </c>
       <c r="J20" s="2">
-        <v>0.23403778871396846</v>
+        <v>0.9164022592509502</v>
       </c>
       <c r="K20" s="2">
-        <v>0.9164022592509502</v>
-      </c>
-      <c r="L20" s="2">
         <v>1.3173153540023543</v>
       </c>
-      <c r="M20">
+      <c r="L20">
         <v>186.06796814098377</v>
       </c>
+      <c r="M20" s="3">
+        <v>139.41638110927269</v>
+      </c>
       <c r="N20" s="3">
-        <v>139.41638110927269</v>
-      </c>
-      <c r="O20" s="3">
         <v>20.132988379940187</v>
       </c>
+      <c r="O20">
+        <v>1.9972029988465971</v>
+      </c>
       <c r="P20">
-        <v>1.9972029988465971</v>
+        <v>3.9235824797839172E-2</v>
       </c>
       <c r="Q20">
-        <v>3.9235824797839172E-2</v>
+        <v>7.9077194571064616E-2</v>
       </c>
       <c r="R20">
-        <v>7.9077194571064616E-2</v>
+        <v>3.7686736430960474E-2</v>
       </c>
       <c r="S20">
-        <v>3.7686736430960474E-2</v>
+        <v>0.59448871394421787</v>
       </c>
       <c r="T20">
-        <v>0.59448871394421787</v>
+        <v>5.6391984939838199E-2</v>
       </c>
       <c r="U20">
-        <v>5.6391984939838199E-2</v>
-      </c>
-      <c r="V20">
         <v>0.28328434766785238</v>
       </c>
+      <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -2688,65 +2909,77 @@
       <c r="BA20" s="2"/>
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-    </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>0.23403778871396846</v>
       </c>
       <c r="J21" s="2">
-        <v>0.23403778871396846</v>
+        <v>0.9164022592509502</v>
       </c>
       <c r="K21" s="2">
-        <v>0.9164022592509502</v>
-      </c>
-      <c r="L21" s="2">
         <v>1.3173153540023543</v>
       </c>
-      <c r="M21">
+      <c r="L21">
         <v>186.06796814098377</v>
       </c>
+      <c r="M21" s="3">
+        <v>139.41638110927269</v>
+      </c>
       <c r="N21" s="3">
-        <v>139.41638110927269</v>
-      </c>
-      <c r="O21" s="3">
         <v>20.132988379940187</v>
       </c>
+      <c r="O21">
+        <v>1.9972029988465971</v>
+      </c>
       <c r="P21">
-        <v>1.9972029988465971</v>
+        <v>3.9235824797839172E-2</v>
       </c>
       <c r="Q21">
-        <v>3.9235824797839172E-2</v>
+        <v>7.9077194571064616E-2</v>
       </c>
       <c r="R21">
-        <v>7.9077194571064616E-2</v>
+        <v>3.7686736430960474E-2</v>
       </c>
       <c r="S21">
-        <v>3.7686736430960474E-2</v>
+        <v>0.59448871394421787</v>
       </c>
       <c r="T21">
-        <v>0.59448871394421787</v>
+        <v>5.6391984939838199E-2</v>
       </c>
       <c r="U21">
-        <v>5.6391984939838199E-2</v>
-      </c>
-      <c r="V21">
         <v>0.28328434766785238</v>
       </c>
+      <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -2780,65 +3013,77 @@
       <c r="BA21" s="2"/>
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
-    </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0.51116337638411169</v>
       </c>
       <c r="J22" s="2">
-        <v>0.51116337638411169</v>
+        <v>1.0894699398079015</v>
       </c>
       <c r="K22" s="2">
-        <v>1.0894699398079015</v>
-      </c>
-      <c r="L22" s="2">
         <v>1.4445127408557197</v>
       </c>
-      <c r="M22">
+      <c r="L22">
         <v>277.46942901233166</v>
       </c>
+      <c r="M22" s="3">
+        <v>102.49568492276251</v>
+      </c>
       <c r="N22" s="3">
-        <v>102.49568492276251</v>
-      </c>
-      <c r="O22" s="3">
         <v>22.042981963064221</v>
       </c>
+      <c r="O22">
+        <v>1.5233275663206456</v>
+      </c>
       <c r="P22">
-        <v>1.5233275663206456</v>
+        <v>0.86943264834539513</v>
       </c>
       <c r="Q22">
-        <v>0.86943264834539513</v>
+        <v>0.91580964379768037</v>
       </c>
       <c r="R22">
-        <v>0.91580964379768037</v>
+        <v>0.90835277258503111</v>
       </c>
       <c r="S22">
-        <v>0.90835277258503111</v>
+        <v>0.74070783652226413</v>
       </c>
       <c r="T22">
-        <v>0.74070783652226413</v>
+        <v>0.85380719311693443</v>
       </c>
       <c r="U22">
-        <v>0.85380719311693443</v>
-      </c>
-      <c r="V22">
         <v>0.52647109108800871</v>
       </c>
+      <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -2872,65 +3117,77 @@
       <c r="BA22" s="2"/>
       <c r="BB22" s="2"/>
       <c r="BC22" s="2"/>
-      <c r="BD22" s="2"/>
-    </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0.51116337638411169</v>
       </c>
       <c r="J23" s="2">
-        <v>0.51116337638411169</v>
+        <v>1.0894699398079015</v>
       </c>
       <c r="K23" s="2">
-        <v>1.0894699398079015</v>
-      </c>
-      <c r="L23" s="2">
         <v>1.4445127408557197</v>
       </c>
-      <c r="M23">
+      <c r="L23">
         <v>277.46942901233166</v>
       </c>
+      <c r="M23" s="3">
+        <v>102.49568492276251</v>
+      </c>
       <c r="N23" s="3">
-        <v>102.49568492276251</v>
-      </c>
-      <c r="O23" s="3">
         <v>22.042981963064221</v>
       </c>
+      <c r="O23">
+        <v>1.5233275663206456</v>
+      </c>
       <c r="P23">
-        <v>1.5233275663206456</v>
+        <v>0.86943264834539513</v>
       </c>
       <c r="Q23">
-        <v>0.86943264834539513</v>
+        <v>0.91580964379768037</v>
       </c>
       <c r="R23">
-        <v>0.91580964379768037</v>
+        <v>0.90835277258503111</v>
       </c>
       <c r="S23">
-        <v>0.90835277258503111</v>
+        <v>0.74070783652226413</v>
       </c>
       <c r="T23">
-        <v>0.74070783652226413</v>
+        <v>0.85380719311693443</v>
       </c>
       <c r="U23">
-        <v>0.85380719311693443</v>
-      </c>
-      <c r="V23">
         <v>0.52647109108800871</v>
       </c>
+      <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -2964,65 +3221,77 @@
       <c r="BA23" s="2"/>
       <c r="BB23" s="2"/>
       <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-    </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>0.51116337638411169</v>
       </c>
       <c r="J24" s="2">
-        <v>0.51116337638411169</v>
+        <v>1.0894699398079015</v>
       </c>
       <c r="K24" s="2">
-        <v>1.0894699398079015</v>
-      </c>
-      <c r="L24" s="2">
         <v>1.4445127408557197</v>
       </c>
-      <c r="M24">
+      <c r="L24">
         <v>277.46942901233166</v>
       </c>
+      <c r="M24" s="3">
+        <v>102.49568492276251</v>
+      </c>
       <c r="N24" s="3">
-        <v>102.49568492276251</v>
-      </c>
-      <c r="O24" s="3">
         <v>22.042981963064221</v>
       </c>
+      <c r="O24">
+        <v>1.5233275663206456</v>
+      </c>
       <c r="P24">
-        <v>1.5233275663206456</v>
+        <v>0.86943264834539513</v>
       </c>
       <c r="Q24">
-        <v>0.86943264834539513</v>
+        <v>0.91580964379768037</v>
       </c>
       <c r="R24">
-        <v>0.91580964379768037</v>
+        <v>0.90835277258503111</v>
       </c>
       <c r="S24">
-        <v>0.90835277258503111</v>
+        <v>0.74070783652226413</v>
       </c>
       <c r="T24">
-        <v>0.74070783652226413</v>
+        <v>0.85380719311693443</v>
       </c>
       <c r="U24">
-        <v>0.85380719311693443</v>
-      </c>
-      <c r="V24">
         <v>0.52647109108800871</v>
       </c>
+      <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
@@ -3056,65 +3325,77 @@
       <c r="BA24" s="2"/>
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-    </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>0.51116337638411169</v>
       </c>
       <c r="J25" s="2">
-        <v>0.51116337638411169</v>
+        <v>1.0894699398079015</v>
       </c>
       <c r="K25" s="2">
-        <v>1.0894699398079015</v>
-      </c>
-      <c r="L25" s="2">
         <v>1.4445127408557197</v>
       </c>
-      <c r="M25">
+      <c r="L25">
         <v>277.46942901233166</v>
       </c>
+      <c r="M25" s="3">
+        <v>102.49568492276251</v>
+      </c>
       <c r="N25" s="3">
-        <v>102.49568492276251</v>
-      </c>
-      <c r="O25" s="3">
         <v>22.042981963064221</v>
       </c>
+      <c r="O25">
+        <v>1.5233275663206456</v>
+      </c>
       <c r="P25">
-        <v>1.5233275663206456</v>
+        <v>0.86943264834539513</v>
       </c>
       <c r="Q25">
-        <v>0.86943264834539513</v>
+        <v>0.91580964379768037</v>
       </c>
       <c r="R25">
-        <v>0.91580964379768037</v>
+        <v>0.90835277258503111</v>
       </c>
       <c r="S25">
-        <v>0.90835277258503111</v>
+        <v>0.74070783652226413</v>
       </c>
       <c r="T25">
-        <v>0.74070783652226413</v>
+        <v>0.85380719311693443</v>
       </c>
       <c r="U25">
-        <v>0.85380719311693443</v>
-      </c>
-      <c r="V25">
         <v>0.52647109108800871</v>
       </c>
+      <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
@@ -3148,63 +3429,75 @@
       <c r="BA25" s="2"/>
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-    </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.37836555439239838</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.91669727295213099</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <v>347.09349542034442</v>
+      </c>
+      <c r="M26" s="3">
+        <v>149.39400301745249</v>
+      </c>
+      <c r="N26" s="2">
         <v>0</v>
       </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.37836555439239838</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.91669727295213099</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2">
-        <v>347.09349542034442</v>
-      </c>
-      <c r="N26" s="3">
-        <v>149.39400301745249</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="O26" s="3">
         <v>1.1571510957324105</v>
       </c>
+      <c r="P26">
+        <v>0.33097543254535006</v>
+      </c>
       <c r="Q26">
-        <v>0.33097543254535006</v>
+        <v>5.3725282925487998E-2</v>
       </c>
       <c r="R26">
-        <v>5.3725282925487998E-2</v>
+        <v>0.2416562626352311</v>
       </c>
       <c r="S26">
-        <v>0.2416562626352311</v>
+        <v>0.30964353023652524</v>
       </c>
       <c r="T26">
-        <v>0.30964353023652524</v>
+        <v>0.84014890003427656</v>
       </c>
       <c r="U26">
-        <v>0.84014890003427656</v>
-      </c>
-      <c r="V26">
         <v>0.46581895263678752</v>
       </c>
+      <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
@@ -3238,63 +3531,75 @@
       <c r="BA26" s="2"/>
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
-    </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.37836555439239838</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.91669727295213099</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2">
+        <v>347.09349542034442</v>
+      </c>
+      <c r="M27" s="3">
+        <v>149.39400301745249</v>
+      </c>
+      <c r="N27" s="2">
         <v>0</v>
       </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.37836555439239838</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0.91669727295213099</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2">
-        <v>347.09349542034442</v>
-      </c>
-      <c r="N27" s="3">
-        <v>149.39400301745249</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="O27" s="3">
         <v>1.1571510957324105</v>
       </c>
+      <c r="P27">
+        <v>0.33097543254535006</v>
+      </c>
       <c r="Q27">
-        <v>0.33097543254535006</v>
+        <v>5.3725282925487998E-2</v>
       </c>
       <c r="R27">
-        <v>5.3725282925487998E-2</v>
+        <v>0.2416562626352311</v>
       </c>
       <c r="S27">
-        <v>0.2416562626352311</v>
+        <v>0.30964353023652524</v>
       </c>
       <c r="T27">
-        <v>0.30964353023652524</v>
+        <v>0.84014890003427656</v>
       </c>
       <c r="U27">
-        <v>0.84014890003427656</v>
-      </c>
-      <c r="V27">
         <v>0.46581895263678752</v>
       </c>
+      <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -3328,63 +3633,75 @@
       <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
-    </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.37836555439239838</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.91669727295213099</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2">
+        <v>347.09349542034442</v>
+      </c>
+      <c r="M28" s="3">
+        <v>149.39400301745249</v>
+      </c>
+      <c r="N28" s="2">
         <v>0</v>
       </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.37836555439239838</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0.91669727295213099</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2">
-        <v>347.09349542034442</v>
-      </c>
-      <c r="N28" s="3">
-        <v>149.39400301745249</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
+      <c r="O28" s="3">
         <v>1.1571510957324105</v>
       </c>
+      <c r="P28">
+        <v>0.33097543254535006</v>
+      </c>
       <c r="Q28">
-        <v>0.33097543254535006</v>
+        <v>5.3725282925487998E-2</v>
       </c>
       <c r="R28">
-        <v>5.3725282925487998E-2</v>
+        <v>0.2416562626352311</v>
       </c>
       <c r="S28">
-        <v>0.2416562626352311</v>
+        <v>0.30964353023652524</v>
       </c>
       <c r="T28">
-        <v>0.30964353023652524</v>
+        <v>0.84014890003427656</v>
       </c>
       <c r="U28">
-        <v>0.84014890003427656</v>
-      </c>
-      <c r="V28">
         <v>0.46581895263678752</v>
       </c>
+      <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -3418,63 +3735,75 @@
       <c r="BA28" s="2"/>
       <c r="BB28" s="2"/>
       <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-    </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.37836555439239838</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.91669727295213099</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2">
+        <v>347.09349542034442</v>
+      </c>
+      <c r="M29" s="3">
+        <v>149.39400301745249</v>
+      </c>
+      <c r="N29" s="2">
         <v>0</v>
       </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.37836555439239838</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0.91669727295213099</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2">
-        <v>347.09349542034442</v>
-      </c>
-      <c r="N29" s="3">
-        <v>149.39400301745249</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="O29" s="3">
         <v>1.1571510957324105</v>
       </c>
+      <c r="P29">
+        <v>0.33097543254535006</v>
+      </c>
       <c r="Q29">
-        <v>0.33097543254535006</v>
+        <v>5.3725282925487998E-2</v>
       </c>
       <c r="R29">
-        <v>5.3725282925487998E-2</v>
+        <v>0.2416562626352311</v>
       </c>
       <c r="S29">
-        <v>0.2416562626352311</v>
+        <v>0.30964353023652524</v>
       </c>
       <c r="T29">
-        <v>0.30964353023652524</v>
+        <v>0.84014890003427656</v>
       </c>
       <c r="U29">
-        <v>0.84014890003427656</v>
-      </c>
-      <c r="V29">
         <v>0.46581895263678752</v>
       </c>
+      <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -3508,63 +3837,75 @@
       <c r="BA29" s="2"/>
       <c r="BB29" s="2"/>
       <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
-    </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.76360131992504976</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.87632254070482563</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
+        <v>388.93361489882335</v>
+      </c>
+      <c r="M30" s="3">
+        <v>137.58519960119833</v>
+      </c>
+      <c r="N30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.76360131992504976</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0.87632254070482563</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2">
-        <v>388.93361489882335</v>
-      </c>
-      <c r="N30" s="3">
-        <v>137.58519960119833</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
+      <c r="O30" s="3">
         <v>1.3151095732410609</v>
       </c>
+      <c r="P30">
+        <v>0.57162967266853948</v>
+      </c>
       <c r="Q30">
-        <v>0.57162967266853948</v>
+        <v>0.53100744902297548</v>
       </c>
       <c r="R30">
-        <v>0.53100744902297548</v>
+        <v>0.57947471079799251</v>
       </c>
       <c r="S30">
-        <v>0.57947471079799251</v>
+        <v>0.97312676111523067</v>
       </c>
       <c r="T30">
-        <v>0.97312676111523067</v>
+        <v>0.75675651154867052</v>
       </c>
       <c r="U30">
-        <v>0.75675651154867052</v>
-      </c>
-      <c r="V30">
         <v>0.98713447995529524</v>
       </c>
+      <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
@@ -3598,63 +3939,75 @@
       <c r="BA30" s="2"/>
       <c r="BB30" s="2"/>
       <c r="BC30" s="2"/>
-      <c r="BD30" s="2"/>
-    </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.76360131992504976</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.87632254070482563</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <v>388.93361489882335</v>
+      </c>
+      <c r="M31" s="3">
+        <v>137.58519960119833</v>
+      </c>
+      <c r="N31" s="2">
         <v>0</v>
       </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.76360131992504976</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0.87632254070482563</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2">
-        <v>388.93361489882335</v>
-      </c>
-      <c r="N31" s="3">
-        <v>137.58519960119833</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
+      <c r="O31" s="3">
         <v>1.3151095732410609</v>
       </c>
+      <c r="P31">
+        <v>0.57162967266853948</v>
+      </c>
       <c r="Q31">
-        <v>0.57162967266853948</v>
+        <v>0.53100744902297548</v>
       </c>
       <c r="R31">
-        <v>0.53100744902297548</v>
+        <v>0.57947471079799251</v>
       </c>
       <c r="S31">
-        <v>0.57947471079799251</v>
+        <v>0.97312676111523067</v>
       </c>
       <c r="T31">
-        <v>0.97312676111523067</v>
+        <v>0.75675651154867052</v>
       </c>
       <c r="U31">
-        <v>0.75675651154867052</v>
-      </c>
-      <c r="V31">
         <v>0.98713447995529524</v>
       </c>
+      <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -3688,63 +4041,75 @@
       <c r="BA31" s="2"/>
       <c r="BB31" s="2"/>
       <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.76360131992504976</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.87632254070482563</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
+        <v>388.93361489882335</v>
+      </c>
+      <c r="M32" s="3">
+        <v>137.58519960119833</v>
+      </c>
+      <c r="N32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.76360131992504976</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0.87632254070482563</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2">
-        <v>388.93361489882335</v>
-      </c>
-      <c r="N32" s="3">
-        <v>137.58519960119833</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="O32" s="3">
         <v>1.3151095732410609</v>
       </c>
+      <c r="P32">
+        <v>0.57162967266853948</v>
+      </c>
       <c r="Q32">
-        <v>0.57162967266853948</v>
+        <v>0.53100744902297548</v>
       </c>
       <c r="R32">
-        <v>0.53100744902297548</v>
+        <v>0.57947471079799251</v>
       </c>
       <c r="S32">
-        <v>0.57947471079799251</v>
+        <v>0.97312676111523067</v>
       </c>
       <c r="T32">
-        <v>0.97312676111523067</v>
+        <v>0.75675651154867052</v>
       </c>
       <c r="U32">
-        <v>0.75675651154867052</v>
-      </c>
-      <c r="V32">
         <v>0.98713447995529524</v>
       </c>
+      <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -3778,63 +4143,75 @@
       <c r="BA32" s="2"/>
       <c r="BB32" s="2"/>
       <c r="BC32" s="2"/>
-      <c r="BD32" s="2"/>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.76360131992504976</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.87632254070482563</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
+        <v>388.93361489882335</v>
+      </c>
+      <c r="M33" s="3">
+        <v>137.58519960119833</v>
+      </c>
+      <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0.76360131992504976</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0.87632254070482563</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2">
-        <v>388.93361489882335</v>
-      </c>
-      <c r="N33" s="3">
-        <v>137.58519960119833</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="O33" s="3">
         <v>1.3151095732410609</v>
       </c>
+      <c r="P33">
+        <v>0.57162967266853948</v>
+      </c>
       <c r="Q33">
-        <v>0.57162967266853948</v>
+        <v>0.53100744902297548</v>
       </c>
       <c r="R33">
-        <v>0.53100744902297548</v>
+        <v>0.57947471079799251</v>
       </c>
       <c r="S33">
-        <v>0.57947471079799251</v>
+        <v>0.97312676111523067</v>
       </c>
       <c r="T33">
-        <v>0.97312676111523067</v>
+        <v>0.75675651154867052</v>
       </c>
       <c r="U33">
-        <v>0.75675651154867052</v>
-      </c>
-      <c r="V33">
         <v>0.98713447995529524</v>
       </c>
+      <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -3868,26 +4245,38 @@
       <c r="BA33" s="2"/>
       <c r="BB33" s="2"/>
       <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
         <v>-1</v>
       </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -3934,26 +4323,38 @@
       <c r="BA34" s="2"/>
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
         <v>-1</v>
       </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -4000,26 +4401,38 @@
       <c r="BA35" s="2"/>
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
         <v>-1</v>
       </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -4066,26 +4479,38 @@
       <c r="BA36" s="2"/>
       <c r="BB36" s="2"/>
       <c r="BC36" s="2"/>
-      <c r="BD36" s="2"/>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
         <v>-1</v>
       </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -4132,26 +4557,38 @@
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
-      <c r="BD37" s="2"/>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2">
         <v>-1</v>
       </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -4198,26 +4635,38 @@
       <c r="BA38" s="2"/>
       <c r="BB38" s="2"/>
       <c r="BC38" s="2"/>
-      <c r="BD38" s="2"/>
-    </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2">
         <v>-1</v>
       </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -4264,26 +4713,38 @@
       <c r="BA39" s="2"/>
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
-      <c r="BD39" s="2"/>
-    </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
         <v>-1</v>
       </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -4330,26 +4791,38 @@
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
       <c r="BC40" s="2"/>
-      <c r="BD40" s="2"/>
-    </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
         <v>-1</v>
       </c>
+      <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -4396,26 +4869,38 @@
       <c r="BA41" s="2"/>
       <c r="BB41" s="2"/>
       <c r="BC41" s="2"/>
-      <c r="BD41" s="2"/>
-    </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
         <v>-1</v>
       </c>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -4462,26 +4947,38 @@
       <c r="BA42" s="2"/>
       <c r="BB42" s="2"/>
       <c r="BC42" s="2"/>
-      <c r="BD42" s="2"/>
-    </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2">
         <v>-1</v>
       </c>
+      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -4528,26 +5025,38 @@
       <c r="BA43" s="2"/>
       <c r="BB43" s="2"/>
       <c r="BC43" s="2"/>
-      <c r="BD43" s="2"/>
-    </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2">
         <v>-1</v>
       </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -4594,26 +5103,38 @@
       <c r="BA44" s="2"/>
       <c r="BB44" s="2"/>
       <c r="BC44" s="2"/>
-      <c r="BD44" s="2"/>
-    </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
       <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2">
         <v>-1</v>
       </c>
+      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -4660,26 +5181,38 @@
       <c r="BA45" s="2"/>
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
-      <c r="BD45" s="2"/>
-    </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
       <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2">
         <v>-1</v>
       </c>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -4726,26 +5259,38 @@
       <c r="BA46" s="2"/>
       <c r="BB46" s="2"/>
       <c r="BC46" s="2"/>
-      <c r="BD46" s="2"/>
-    </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
       <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2">
         <v>-1</v>
       </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -4792,26 +5337,38 @@
       <c r="BA47" s="2"/>
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
-      <c r="BD47" s="2"/>
-    </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
       <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2">
         <v>-1</v>
       </c>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -4858,24 +5415,35 @@
       <c r="BA48" s="2"/>
       <c r="BB48" s="2"/>
       <c r="BC48" s="2"/>
-      <c r="BD48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
       <c r="H49" s="2">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -4901,12 +5469,12 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4916,7 +5484,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4927,21 +5495,21 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +5530,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
